--- a/src/data/a_city_template/2025/sample_projects.xlsx
+++ b/src/data/a_city_template/2025/sample_projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gignac/Desktop/Projects/pabulib_process_data/src/data/a_city_template/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EA33F5-E3F9-C545-9A64-B44E5871A228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44ED76B2-3765-384A-9E01-9F1E784CCE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Project ID</t>
   </si>
@@ -65,18 +65,6 @@
   </si>
   <si>
     <t>Sports Facility</t>
-  </si>
-  <si>
-    <t>Normalized District</t>
-  </si>
-  <si>
-    <t>DISTRICT_1</t>
-  </si>
-  <si>
-    <t>DISTRICT_2</t>
-  </si>
-  <si>
-    <t>CITYWIDE</t>
   </si>
 </sst>
 </file>
@@ -444,15 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,11 +459,8 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -494,11 +479,8 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -517,11 +499,8 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -540,11 +519,8 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -563,11 +539,8 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -586,11 +559,8 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -608,9 +578,6 @@
       </c>
       <c r="F7">
         <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
